--- a/forms/versement_stabilization.xlsx
+++ b/forms/versement_stabilization.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/collectioncca$/Archives/Archives numériques/Guides and templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twalsh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Media/Transfer ID</t>
   </si>
@@ -170,34 +173,13 @@
     </r>
   </si>
   <si>
-    <t>Files extracted?</t>
-  </si>
-  <si>
-    <t>Reports generated?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Potential issues </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(preservation, duplication, privacy, rights, etc.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Other notes</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
     <t>DVD</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -655,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -669,14 +651,12 @@
     <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="6" customWidth="1"/>
-    <col min="7" max="8" width="22.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="57.1640625" style="6" customWidth="1"/>
-    <col min="11" max="15" width="21.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="57.1640625" style="6" customWidth="1"/>
+    <col min="8" max="12" width="21.5" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -695,17 +675,8 @@
       <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +706,7 @@
           <x14:formula1>
             <xm:f>CV!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H1048576 E2:E5052</xm:sqref>
+          <xm:sqref>E2:E5052</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -859,7 +830,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -870,7 +841,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/forms/versement_stabilization.xlsx
+++ b/forms/versement_stabilization.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twalsh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twalsh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="34740" windowHeight="24180"/>
+    <workbookView xWindow="5280" yWindow="2880" windowWidth="34740" windowHeight="24180"/>
   </bookViews>
   <sheets>
     <sheet name="Stabilization spreadsheet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Media/Transfer ID</t>
   </si>
@@ -119,22 +119,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Disk image/package saved to:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(enter path of network location or name of folder on Bitcurator desktop)</t>
-    </r>
-  </si>
-  <si>
     <t>Fonds:</t>
   </si>
   <si>
@@ -159,20 +143,6 @@
     <t xml:space="preserve">Project end date: </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Container
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>(if applicable)</t>
-    </r>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
@@ -180,13 +150,16 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,11 +181,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -637,52 +605,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="28.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="59.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" style="6" customWidth="1"/>
-    <col min="8" max="12" width="21.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="28.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="57.1640625" style="6" customWidth="1"/>
+    <col min="7" max="11" width="21.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>37</v>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5053:E1048576">
-      <formula1>$C$2:$C$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5053:D1048576">
+      <formula1>$B$2:$B$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -694,25 +659,25 @@
           <x14:formula1>
             <xm:f>CV!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>C5260:C1048576 C2:C5052</xm:sqref>
+          <xm:sqref>B5260:B1048576 B2:B5052</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CV!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CV!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5052</xm:sqref>
+          <xm:sqref>D2:D5052</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CV!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C5053:C5259</xm:sqref>
+          <xm:sqref>B5053:B5259</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -736,10 +701,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,31 +712,31 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +795,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -841,7 +806,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
